--- a/To-U2_test-case.xlsx
+++ b/To-U2_test-case.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liolka.b\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liolka.b\Desktop\gittesting\usecases-mobile\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
   <si>
     <t>Priority:</t>
   </si>
@@ -54,12 +54,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Dropdown menu with  brand of car</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.User entered incorrect phone number /
- email address or both.
-2.Click on the button "Зареєструватись"
-</t>
   </si>
   <si>
     <t>Focuses on the incorrect fields and 
@@ -151,6 +145,73 @@
   <si>
     <t xml:space="preserve">
 The button becomes active</t>
+  </si>
+  <si>
+    <t>Valid country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The application is installed on the phone;
+2.The application is oppened;
+</t>
+  </si>
+  <si>
+    <t>The user see the "Map", with the country in focus that is selected in the user's profile .</t>
+  </si>
+  <si>
+    <t>Go-ToU3.1</t>
+  </si>
+  <si>
+    <t>Go-ToU3.2</t>
+  </si>
+  <si>
+    <t>1.The application is installed on the phone;
+2.The application is oppened and the map is showing.</t>
+  </si>
+  <si>
+    <t>1.User choosed  which social network will be sing in (Facebook, Google+) and click it.</t>
+  </si>
+  <si>
+    <t>1.User entered incorrect phone number /
+ email address or both.
+Example of e-mails: me@ , @example.com , me.@example.com , .me@example.com ,me@example..com , me.example@com , me\@example.com
+Example of numbers: +3806, ++38063112233,
++3(*11223344, +38063112233445566
+2.Click on the button "Зареєструватись"</t>
+  </si>
+  <si>
+    <t>Go-ToU3.3</t>
+  </si>
+  <si>
+    <t>1.user  clicks on a certain charge station</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the bottom of screen appear basic information about the charger:  
+   • status of charger;
+   • amount of chargers;
+   • distance to charge station;
+   • amount of comments;
+   • addition services;
+   • address;
+   • add to your favorite;
+   • get directions;
+   • book the charger;
+</t>
+  </si>
+  <si>
+    <t>Basic information about a
+ charge station</t>
+  </si>
+  <si>
+    <t>Page with basic information
+ about a charge station</t>
+  </si>
+  <si>
+    <t>1.User  clicks on a certain charger;
+2.User clicks on the blue circle icon "i".</t>
+  </si>
+  <si>
+    <t>Appear the page with basic information
+about a charge station + (photo).</t>
   </si>
 </sst>
 </file>
@@ -481,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -516,7 +577,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -527,16 +588,16 @@
         <v>6</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -546,114 +607,174 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="4">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>17</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="4">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="4">
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B8" s="4">
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>34</v>
+    </row>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="180" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
